--- a/documentation/junior_project.xlsx
+++ b/documentation/junior_project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019\Fall\371 JP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikeRob\Documents\GitHub\AutomatedSmartBlinds\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BDE7D3-7B64-48A2-8E74-74D0962EFB83}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0DC260-52CF-4682-9830-E1E7AEE3F1A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>PERIODS</t>
   </si>
@@ -225,12 +225,6 @@
     <t>Initial Parts Order</t>
   </si>
   <si>
-    <t>Database Diagrams</t>
-  </si>
-  <si>
-    <t>Software Diagrams</t>
-  </si>
-  <si>
     <t>MCU Intergration</t>
   </si>
   <si>
@@ -261,13 +255,25 @@
     <t>Wi-Fi MCU Code(Tier 4)</t>
   </si>
   <si>
-    <t>Wi-Fi MCU State Machine Diagram</t>
-  </si>
-  <si>
     <t>Schedule Notes</t>
   </si>
   <si>
     <t>10/31/2019 - Nothing to change. Will update during next meeting 10.2.2019</t>
+  </si>
+  <si>
+    <t>Initial Project Plan Software Diagrams</t>
+  </si>
+  <si>
+    <t>Initial Project Plan Database Diagrams</t>
+  </si>
+  <si>
+    <t>Initial Project Plan Wi-Fi MCU State Machine Diagram</t>
+  </si>
+  <si>
+    <t>11/6/2019 - No other updates from team. Chad and Drew will give updates next team teaming Wednesday.</t>
+  </si>
+  <si>
+    <t>Fall Term Project Presentation</t>
   </si>
 </sst>
 </file>
@@ -705,6 +711,54 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -722,54 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="19" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1181,10 +1187,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO48"/>
+  <dimension ref="A1:BO50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1207,80 +1213,80 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="41"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="41"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="43"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="37"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="44" t="s">
+      <c r="AA2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="46"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="31" t="s">
+      <c r="AI2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="32" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1307,12 +1313,12 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="35"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1495,14 +1501,14 @@
       </c>
     </row>
     <row r="5" spans="2:67" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -1705,14 +1711,14 @@
       </c>
     </row>
     <row r="15" spans="2:67" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -1895,14 +1901,14 @@
       </c>
     </row>
     <row r="24" spans="2:27" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
@@ -2005,14 +2011,14 @@
       </c>
     </row>
     <row r="29" spans="2:27" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
@@ -2056,7 +2062,7 @@
     </row>
     <row r="31" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -2076,7 +2082,7 @@
     </row>
     <row r="32" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -2096,7 +2102,7 @@
     </row>
     <row r="33" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -2116,7 +2122,7 @@
     </row>
     <row r="34" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -2136,7 +2142,7 @@
     </row>
     <row r="35" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C35" s="7">
         <v>0</v>
@@ -2155,17 +2161,17 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="24" t="s">
-        <v>38</v>
+      <c r="B36" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C36" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F36" s="7">
         <v>0</v>
@@ -2175,17 +2181,17 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="24" t="s">
-        <v>39</v>
+      <c r="B37" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F37" s="7">
         <v>0</v>
@@ -2194,18 +2200,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="24" t="s">
-        <v>50</v>
+    <row r="38" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.35">
+      <c r="B38" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C38" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F38" s="7">
         <v>0</v>
@@ -2216,16 +2222,16 @@
     </row>
     <row r="39" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C39" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D39" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F39" s="7">
         <v>0</v>
@@ -2236,16 +2242,16 @@
     </row>
     <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D40" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E40" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F40" s="7">
         <v>0</v>
@@ -2256,16 +2262,16 @@
     </row>
     <row r="41" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D41" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F41" s="7">
         <v>0</v>
@@ -2276,16 +2282,16 @@
     </row>
     <row r="42" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D42" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E42" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F42" s="7">
         <v>0</v>
@@ -2296,7 +2302,7 @@
     </row>
     <row r="43" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -2315,45 +2321,57 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="24"/>
+      <c r="B44" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="C44" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D44" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F44" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
+      <c r="A46" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
     </row>
     <row r="48" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="69.599999999999994" x14ac:dyDescent="0.35">
+      <c r="B50" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B24:G24"/>
     <mergeCell ref="AI2:AP2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
@@ -2366,11 +2384,6 @@
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B24:G24"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H5:BO44">

--- a/documentation/junior_project.xlsx
+++ b/documentation/junior_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikeRob\Documents\GitHub\AutomatedSmartBlinds\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0DC260-52CF-4682-9830-E1E7AEE3F1A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43792898-925D-47EB-B6B1-056834152CBF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>PERIODS</t>
   </si>
@@ -255,9 +255,6 @@
     <t>Wi-Fi MCU Code(Tier 4)</t>
   </si>
   <si>
-    <t>Schedule Notes</t>
-  </si>
-  <si>
     <t>10/31/2019 - Nothing to change. Will update during next meeting 10.2.2019</t>
   </si>
   <si>
@@ -274,6 +271,12 @@
   </si>
   <si>
     <t>Fall Term Project Presentation</t>
+  </si>
+  <si>
+    <t>Schedule Notes (Term 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/13/2019 - No updates from team. Doing Preliminary Schedule and will update First week of next term. </t>
   </si>
 </sst>
 </file>
@@ -711,6 +714,24 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="19" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -758,24 +779,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="19" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1187,10 +1190,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO50"/>
+  <dimension ref="A1:BO52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1213,80 +1216,80 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="41"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="35"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="41"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="37"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="43"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="38" t="s">
+      <c r="AA2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="40"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="46"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="25" t="s">
+      <c r="AI2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="38" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1313,12 +1316,12 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="29"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1501,14 +1504,14 @@
       </c>
     </row>
     <row r="5" spans="2:67" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -1711,14 +1714,14 @@
       </c>
     </row>
     <row r="15" spans="2:67" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -1901,14 +1904,14 @@
       </c>
     </row>
     <row r="24" spans="2:27" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
@@ -2011,14 +2014,14 @@
       </c>
     </row>
     <row r="29" spans="2:27" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
@@ -2065,10 +2068,10 @@
         <v>39</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="7">
         <v>0</v>
@@ -2085,19 +2088,19 @@
         <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2105,19 +2108,19 @@
         <v>41</v>
       </c>
       <c r="C33" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F33" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2125,19 +2128,19 @@
         <v>42</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -2145,10 +2148,10 @@
         <v>43</v>
       </c>
       <c r="C35" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D35" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35" s="7">
         <v>0</v>
@@ -2162,7 +2165,7 @@
     </row>
     <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="7">
         <v>6</v>
@@ -2182,7 +2185,7 @@
     </row>
     <row r="37" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="7">
         <v>6</v>
@@ -2202,7 +2205,7 @@
     </row>
     <row r="38" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.35">
       <c r="B38" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="7">
         <v>6</v>
@@ -2305,10 +2308,10 @@
         <v>38</v>
       </c>
       <c r="C43" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D43" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E43" s="7">
         <v>0</v>
@@ -2322,7 +2325,7 @@
     </row>
     <row r="44" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="7">
         <v>7</v>
@@ -2341,37 +2344,38 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
+      <c r="A46" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
     </row>
     <row r="48" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="69.599999999999994" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="35.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="2:2" ht="52.2" x14ac:dyDescent="0.35">
+      <c r="B52" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B24:G24"/>
     <mergeCell ref="AI2:AP2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
@@ -2384,6 +2388,11 @@
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B24:G24"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H5:BO44">

--- a/documentation/junior_project.xlsx
+++ b/documentation/junior_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikeRob\Documents\GitHub\AutomatedSmartBlinds\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43792898-925D-47EB-B6B1-056834152CBF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7B44A7-A400-4535-9FA4-076633CA98EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1192,7 +1192,7 @@
   </sheetPr>
   <dimension ref="A1:BO52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>

--- a/documentation/junior_project.xlsx
+++ b/documentation/junior_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikeRob\Documents\GitHub\AutomatedSmartBlinds\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew Deraita\Documents\GitHub\AutomatedSmartBlinds\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7B44A7-A400-4535-9FA4-076633CA98EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B662FE-E8B2-48EF-A710-2D51FD6B203C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>PERIODS</t>
   </si>
@@ -45,12 +45,6 @@
     <t>ACTIVITY</t>
   </si>
   <si>
-    <t>Activity 03</t>
-  </si>
-  <si>
-    <t>Activity 04</t>
-  </si>
-  <si>
     <t>Activity 05</t>
   </si>
   <si>
@@ -67,36 +61,6 @@
   </si>
   <si>
     <t>Activity 10</t>
-  </si>
-  <si>
-    <t>Activity 12</t>
-  </si>
-  <si>
-    <t>Activity 13</t>
-  </si>
-  <si>
-    <t>Activity 14</t>
-  </si>
-  <si>
-    <t>Activity 15</t>
-  </si>
-  <si>
-    <t>Activity 16</t>
-  </si>
-  <si>
-    <t>Activity 17</t>
-  </si>
-  <si>
-    <t>Activity 18</t>
-  </si>
-  <si>
-    <t>Activity 20</t>
-  </si>
-  <si>
-    <t>Activity 21</t>
-  </si>
-  <si>
-    <t>Activity 22</t>
   </si>
   <si>
     <r>
@@ -213,9 +177,6 @@
     <t>Junior Project Planner 30 - Weeks</t>
   </si>
   <si>
-    <t>Drew (Microcontroller, Power Supply, Smoke Gas Sensor, Camera, LED Notification)</t>
-  </si>
-  <si>
     <t>Chad (Motor Operations, Temerature Sensor, Speaker, Proximity Sensor, Blinds)</t>
   </si>
   <si>
@@ -277,6 +238,75 @@
   </si>
   <si>
     <t xml:space="preserve">11/13/2019 - No updates from team. Doing Preliminary Schedule and will update First week of next term. </t>
+  </si>
+  <si>
+    <t>Initial Parts Testing (PIC32)</t>
+  </si>
+  <si>
+    <t>Initial Parts Testing (Power Supply)</t>
+  </si>
+  <si>
+    <t>Initial Parts Testing (Gas Sensor)</t>
+  </si>
+  <si>
+    <t>Initial Parts Testing (Camera)</t>
+  </si>
+  <si>
+    <t>Initial Parts Testing (LED's)</t>
+  </si>
+  <si>
+    <t>Microproccessor Phase 1</t>
+  </si>
+  <si>
+    <t>Microproccessor Phase 2</t>
+  </si>
+  <si>
+    <t>Microprocessor Final Testing</t>
+  </si>
+  <si>
+    <t>Power Supply Phase 1</t>
+  </si>
+  <si>
+    <t>Power Supply Phase 2</t>
+  </si>
+  <si>
+    <t>Power Supply Phase 3</t>
+  </si>
+  <si>
+    <t>Power Supply Final Testing</t>
+  </si>
+  <si>
+    <t>Gas Sensor Phase 1</t>
+  </si>
+  <si>
+    <t>Gas Sensor Final Testing</t>
+  </si>
+  <si>
+    <t>Camera Phase 1</t>
+  </si>
+  <si>
+    <t>Camera Phase 2</t>
+  </si>
+  <si>
+    <t>Camera Final Testing</t>
+  </si>
+  <si>
+    <t>LED Final Testing</t>
+  </si>
+  <si>
+    <t>LED Phase 1</t>
+  </si>
+  <si>
+    <t>Drew (Microcontroller, Power Supply, Proximity Sensor, Camera, LED Notification)</t>
+  </si>
+  <si>
+    <t>Initial Parts Testing (Proximity Sensor)</t>
+  </si>
+  <si>
+    <t>Proximity Sensor Phase 1</t>
+  </si>
+  <si>
+    <t>Proximity Sensor Final Testing</t>
   </si>
 </sst>
 </file>
@@ -638,7 +668,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -714,6 +744,54 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -732,53 +810,11 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="19" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1190,24 +1226,25 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO52"/>
+  <dimension ref="A1:BO62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="41.21875" style="2" customWidth="1"/>
-    <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.77734375" style="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="41.25" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
+    <col min="8" max="27" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="14" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -1215,82 +1252,82 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H2" s="15">
         <v>7</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="41"/>
+      <c r="K2" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="41"/>
+      <c r="Q2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="43"/>
+      <c r="V2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="37"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="46"/>
+      <c r="AA2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-    </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>28</v>
+      <c r="AI2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+    </row>
+    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>0</v>
@@ -1315,13 +1352,13 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="35"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1503,15 +1540,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+    <row r="5" spans="2:67" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -1533,9 +1570,9 @@
       <c r="Z5" s="22"/>
       <c r="AA5" s="22"/>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1553,150 +1590,150 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" t="s">
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" t="s">
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="C14" s="7">
         <v>0</v>
       </c>
@@ -1713,15 +1750,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:67" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+    <row r="15" spans="2:67" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -1743,9 +1780,9 @@
       <c r="Z15" s="22"/>
       <c r="AA15" s="22"/>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="24" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C16" s="9">
         <v>4</v>
@@ -1763,315 +1800,315 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="7">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="7">
+        <v>7</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>7</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="7">
         <v>10</v>
       </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="7">
+        <v>7</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>7</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="7">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
+        <v>6</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="7">
+        <v>6</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="7">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="7">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="7">
+        <v>20</v>
+      </c>
+      <c r="D27" s="7">
+        <v>4</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="7">
+        <v>20</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" s="47" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="7">
         <v>11</v>
       </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="6" t="s">
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="48"/>
+    </row>
+    <row r="31" spans="2:27" s="47" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="7">
         <v>13</v>
       </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-    </row>
-    <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="7">
-        <v>4</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7">
-        <v>4</v>
-      </c>
-      <c r="F25" s="7">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
-    </row>
-    <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="7">
-        <v>4</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-      <c r="E30" s="7">
-        <v>4</v>
-      </c>
-      <c r="F30" s="7">
-        <v>1</v>
-      </c>
-      <c r="G30" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="7">
-        <v>8</v>
-      </c>
       <c r="D31" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" s="7">
         <v>0</v>
@@ -2082,10 +2119,30 @@
       <c r="G31" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="24" t="s">
-        <v>40</v>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="48"/>
+    </row>
+    <row r="32" spans="2:27" s="47" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C32" s="7">
         <v>7</v>
@@ -2094,187 +2151,247 @@
         <v>1</v>
       </c>
       <c r="E32" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="24" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
+    </row>
+    <row r="33" spans="2:27" s="47" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C33" s="7">
+        <v>20</v>
+      </c>
+      <c r="D33" s="7">
+        <v>4</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0</v>
+      </c>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="48"/>
+    </row>
+    <row r="34" spans="2:27" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+    </row>
+    <row r="35" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="7">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7">
+        <v>4</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+    </row>
+    <row r="40" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="7">
+        <v>4</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7">
+        <v>4</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="7">
         <v>8</v>
       </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7">
-        <v>7</v>
-      </c>
-      <c r="F33" s="7">
+      <c r="D41" s="7">
         <v>2</v>
       </c>
-      <c r="G33" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="7">
-        <v>8</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1</v>
-      </c>
-      <c r="E34" s="7">
-        <v>8</v>
-      </c>
-      <c r="F34" s="7">
-        <v>1</v>
-      </c>
-      <c r="G34" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="7">
-        <v>12</v>
-      </c>
-      <c r="D35" s="7">
-        <v>3</v>
-      </c>
-      <c r="E35" s="7">
-        <v>0</v>
-      </c>
-      <c r="F35" s="7">
-        <v>0</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="7">
-        <v>6</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1</v>
-      </c>
-      <c r="E36" s="7">
-        <v>6</v>
-      </c>
-      <c r="F36" s="7">
-        <v>0</v>
-      </c>
-      <c r="G36" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="7">
-        <v>6</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
-      <c r="E37" s="7">
-        <v>6</v>
-      </c>
-      <c r="F37" s="7">
-        <v>0</v>
-      </c>
-      <c r="G37" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.35">
-      <c r="B38" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="7">
-        <v>6</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1</v>
-      </c>
-      <c r="E38" s="7">
-        <v>6</v>
-      </c>
-      <c r="F38" s="7">
-        <v>0</v>
-      </c>
-      <c r="G38" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="7">
-        <v>7</v>
-      </c>
-      <c r="D39" s="7">
-        <v>3</v>
-      </c>
-      <c r="E39" s="7">
-        <v>7</v>
-      </c>
-      <c r="F39" s="7">
-        <v>0</v>
-      </c>
-      <c r="G39" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="7">
-        <v>7</v>
-      </c>
-      <c r="D40" s="7">
-        <v>3</v>
-      </c>
-      <c r="E40" s="7">
-        <v>7</v>
-      </c>
-      <c r="F40" s="7">
-        <v>0</v>
-      </c>
-      <c r="G40" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="7">
-        <v>7</v>
-      </c>
-      <c r="D41" s="7">
-        <v>3</v>
-      </c>
       <c r="E41" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F41" s="7">
         <v>0</v>
@@ -2283,99 +2400,304 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="24" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C42" s="7">
         <v>7</v>
       </c>
       <c r="D42" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" s="7">
         <v>7</v>
       </c>
       <c r="F42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="7">
+        <v>8</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7">
+        <v>7</v>
+      </c>
+      <c r="F43" s="7">
+        <v>2</v>
+      </c>
+      <c r="G43" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="7">
+        <v>8</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7">
+        <v>8</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1</v>
+      </c>
+      <c r="G44" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="7">
+        <v>12</v>
+      </c>
+      <c r="D45" s="7">
+        <v>3</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="7">
+        <v>6</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7">
+        <v>6</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0</v>
+      </c>
+      <c r="G46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="7">
+        <v>6</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7">
+        <v>6</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0</v>
+      </c>
+      <c r="G47" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C48" s="7">
+        <v>6</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7">
+        <v>6</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="7">
+        <v>7</v>
+      </c>
+      <c r="D49" s="7">
+        <v>3</v>
+      </c>
+      <c r="E49" s="7">
+        <v>7</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+      <c r="G49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="7">
+        <v>7</v>
+      </c>
+      <c r="D50" s="7">
+        <v>3</v>
+      </c>
+      <c r="E50" s="7">
+        <v>7</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+      <c r="G50" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="7">
+        <v>7</v>
+      </c>
+      <c r="D51" s="7">
+        <v>3</v>
+      </c>
+      <c r="E51" s="7">
+        <v>7</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+      <c r="G51" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="7">
+        <v>7</v>
+      </c>
+      <c r="D52" s="7">
+        <v>3</v>
+      </c>
+      <c r="E52" s="7">
+        <v>7</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0</v>
+      </c>
+      <c r="G52" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="7">
         <v>14</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D53" s="7">
         <v>2</v>
       </c>
-      <c r="E43" s="7">
-        <v>0</v>
-      </c>
-      <c r="F43" s="7">
-        <v>0</v>
-      </c>
-      <c r="G43" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="7">
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
+      <c r="G53" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="7">
         <v>7</v>
       </c>
-      <c r="D44" s="7">
-        <v>1</v>
-      </c>
-      <c r="E44" s="7">
+      <c r="D54" s="7">
+        <v>1</v>
+      </c>
+      <c r="E54" s="7">
         <v>7</v>
       </c>
-      <c r="F44" s="7">
-        <v>1</v>
-      </c>
-      <c r="G44" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-    </row>
-    <row r="48" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="69.599999999999994" x14ac:dyDescent="0.35">
-      <c r="B50" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" ht="35.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="2:2" ht="52.2" x14ac:dyDescent="0.35">
-      <c r="B52" s="2" t="s">
-        <v>55</v>
+      <c r="F54" s="7">
+        <v>1</v>
+      </c>
+      <c r="G54" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+    </row>
+    <row r="58" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:11" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A56:K56"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B34:G34"/>
     <mergeCell ref="AI2:AP2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
@@ -2388,14 +2710,9 @@
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B24:G24"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
-  <conditionalFormatting sqref="H5:BO44">
+  <conditionalFormatting sqref="H5:BO54">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2421,7 +2738,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45:BO45">
+  <conditionalFormatting sqref="B55:BO55">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
